--- a/va_facility_data_2025-02-20/Newburg VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Newburg%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Newburg VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Newburg%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R8718e7cbc2714893a24dff53f678736b"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R26f06ac84bb24524853085070bc2d59b"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rdeaea3409ba0441c8ee4e529a9a07c72"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R9e6332c6cc4c4f639c6645f1ad0abac7"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R25072cc7356f4da69937a5116d6d8cea"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R4249d87e62454b799c4d1f2bb1449a38"/>
   </x:sheets>
 </x:workbook>
 </file>
